--- a/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/AP_Aging_Report.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/AP_Aging_Report.xlsx
@@ -16,10 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -69,14 +68,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,22 +535,22 @@
           <t>BM-1234</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="8" t="n">
         <v>15400</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="8" t="n">
         <v>15400</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -568,22 +570,22 @@
           <t>SE-5678</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="7" t="n">
         <v>45550</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="8" t="n">
         <v>22080</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="8" t="n">
         <v>22080</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -603,22 +605,22 @@
           <t>PP-9012</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="7" t="n">
         <v>45529</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="8" t="n">
         <v>18900</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="8" t="n">
         <v>18900</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -638,22 +640,22 @@
           <t>CC-3456</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="8" t="n">
         <v>31500</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="8" t="n">
         <v>31500</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
@@ -673,22 +675,22 @@
           <t>ST-7890</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="8" t="n">
         <v>12400</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="8" t="n">
         <v>12400</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -703,25 +705,889 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D10" s="6">
-        <f>SUM(D5:D9)</f>
-        <v/>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(E5:E9)</f>
-        <v/>
-      </c>
-      <c r="F10" s="6">
-        <f>SUM(F5:F9)</f>
-        <v/>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(G5:G9)</f>
-        <v/>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H5:H9)</f>
-        <v/>
+      <c r="D10" s="9">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E10" s="9">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F10" s="9">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14355</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4381</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F11">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v>37665</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>28686</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47927</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F12">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v>7918</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19843</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43744</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v>30865</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14884</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15692</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v>17476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24739</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29392</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>36868</v>
+      </c>
+      <c r="C16" t="n">
+        <v>36264</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v>11424</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17729</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28650</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v>19826</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10049</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F18">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H18">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v>41545</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F19">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v>49723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>33212</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31710</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F20">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v>13687</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12456</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13806</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F21">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H21">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v>25646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>47793</v>
+      </c>
+      <c r="C22" t="n">
+        <v>45209</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F22">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I22" t="n">
+        <v>23236</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2669</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1777</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F23">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I23" t="n">
+        <v>37319</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>40378</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23691</v>
+      </c>
+      <c r="D24">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E24">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F24">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G24">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H24">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I24" t="n">
+        <v>25013</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>37880</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6272</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E25">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G25">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I25" t="n">
+        <v>16853</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>47572</v>
+      </c>
+      <c r="C26" t="n">
+        <v>20284</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E26">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F26">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G26">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H26">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I26" t="n">
+        <v>37697</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>23296</v>
+      </c>
+      <c r="C27" t="n">
+        <v>38616</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G27">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I27" t="n">
+        <v>14517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5781</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4662</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E28">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I28" t="n">
+        <v>47581</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17203</v>
+      </c>
+      <c r="C29" t="n">
+        <v>42550</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I29" t="n">
+        <v>28950</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>39733</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29668</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G30">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H30">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I30" t="n">
+        <v>37302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>23374</v>
+      </c>
+      <c r="C31" t="n">
+        <v>36723</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G31">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I31" t="n">
+        <v>39620</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31947</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H32">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I32" t="n">
+        <v>39170</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3785</v>
+      </c>
+      <c r="C33" t="n">
+        <v>36735</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F33">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I33" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>40228</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10745</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D5:D9)</f>
+        <v/>
+      </c>
+      <c r="E34">
+        <f>SUM(E5:E9)</f>
+        <v/>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F9)</f>
+        <v/>
+      </c>
+      <c r="G34">
+        <f>SUM(G5:G9)</f>
+        <v/>
+      </c>
+      <c r="H34">
+        <f>SUM(H5:H9)</f>
+        <v/>
+      </c>
+      <c r="I34" t="n">
+        <v>37720</v>
       </c>
     </row>
   </sheetData>
